--- a/bots/crawl_ch/output/electronics_2022-08-19.xlsx
+++ b/bots/crawl_ch/output/electronics_2022-08-19.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:O89"/>
+  <dimension ref="A1:O90"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -579,7 +579,7 @@
       </c>
       <c r="O2" t="inlineStr">
         <is>
-          <t>2022-08-19 07:02:45</t>
+          <t>2022-08-19 20:58:39</t>
         </is>
       </c>
     </row>
@@ -652,7 +652,7 @@
       </c>
       <c r="O3" t="inlineStr">
         <is>
-          <t>2022-08-19 07:02:45</t>
+          <t>2022-08-19 20:58:39</t>
         </is>
       </c>
     </row>
@@ -723,7 +723,7 @@
       </c>
       <c r="O4" t="inlineStr">
         <is>
-          <t>2022-08-19 07:02:45</t>
+          <t>2022-08-19 20:58:39</t>
         </is>
       </c>
     </row>
@@ -796,7 +796,7 @@
       </c>
       <c r="O5" t="inlineStr">
         <is>
-          <t>2022-08-19 07:02:45</t>
+          <t>2022-08-19 20:58:39</t>
         </is>
       </c>
     </row>
@@ -869,7 +869,7 @@
       </c>
       <c r="O6" t="inlineStr">
         <is>
-          <t>2022-08-19 07:02:45</t>
+          <t>2022-08-19 20:58:39</t>
         </is>
       </c>
     </row>
@@ -942,7 +942,7 @@
       </c>
       <c r="O7" t="inlineStr">
         <is>
-          <t>2022-08-19 07:02:45</t>
+          <t>2022-08-19 20:58:39</t>
         </is>
       </c>
     </row>
@@ -1015,7 +1015,7 @@
       </c>
       <c r="O8" t="inlineStr">
         <is>
-          <t>2022-08-19 07:02:45</t>
+          <t>2022-08-19 20:58:39</t>
         </is>
       </c>
     </row>
@@ -1086,7 +1086,7 @@
       </c>
       <c r="O9" t="inlineStr">
         <is>
-          <t>2022-08-19 07:02:45</t>
+          <t>2022-08-19 20:58:39</t>
         </is>
       </c>
     </row>
@@ -1159,7 +1159,7 @@
       </c>
       <c r="O10" t="inlineStr">
         <is>
-          <t>2022-08-19 07:02:45</t>
+          <t>2022-08-19 20:58:39</t>
         </is>
       </c>
     </row>
@@ -1232,7 +1232,7 @@
       </c>
       <c r="O11" t="inlineStr">
         <is>
-          <t>2022-08-19 07:02:45</t>
+          <t>2022-08-19 20:58:39</t>
         </is>
       </c>
     </row>
@@ -1303,7 +1303,7 @@
       </c>
       <c r="O12" t="inlineStr">
         <is>
-          <t>2022-08-19 07:02:45</t>
+          <t>2022-08-19 20:58:39</t>
         </is>
       </c>
     </row>
@@ -1376,36 +1376,34 @@
       </c>
       <c r="O13" t="inlineStr">
         <is>
-          <t>2022-08-19 07:02:45</t>
+          <t>2022-08-19 20:58:39</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>6153846</t>
+          <t>6801782</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Duracell Knopfzelle CR2032 3V 2 Stück</t>
+          <t>Duracell Batterien Plus AAA/LR03 12 Stück</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/elektroartikel-batterien/batterien/andere-batterien/duracell-knopfzelle-cr2032-3v-2-stueck/p/6153846</t>
+          <t>/de/haushalt-tier/elektroartikel-batterien/batterien/aaa/duracell-batterien-plus-aaalr03-12-stueck/p/6801782</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>2ST</t>
-        </is>
-      </c>
-      <c r="E14" t="n">
-        <v>1</v>
-      </c>
+          <t>12ST</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr"/>
       <c r="F14" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="G14" t="inlineStr">
         <is>
@@ -1414,12 +1412,12 @@
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>9.95</t>
+          <t>14.90</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>4.98/1ST</t>
+          <t>1.24/1ST</t>
         </is>
       </c>
       <c r="J14" t="inlineStr">
@@ -1429,7 +1427,7 @@
       </c>
       <c r="K14" t="inlineStr">
         <is>
-          <t>4.98</t>
+          <t>1.24</t>
         </is>
       </c>
       <c r="L14" t="inlineStr">
@@ -1439,60 +1437,60 @@
       </c>
       <c r="M14" t="inlineStr">
         <is>
-          <t>['haushalt-tier', 'elektroartikel-batterien', 'batterien', 'andere-batterien']</t>
+          <t>['haushalt-tier', 'elektroartikel-batterien', 'batterien', 'aaa']</t>
         </is>
       </c>
       <c r="N14" t="inlineStr">
         <is>
-          <t>Duracell Knopfzelle CR2032 3V 2 Stück 9.95 Schweizer Franken</t>
+          <t>Duracell Batterien Plus AAA/LR03 12 Stück 50% Aktion 14.90 Schweizer Franken statt 29.85 Schweizer Franken</t>
         </is>
       </c>
       <c r="O14" t="inlineStr">
         <is>
-          <t>2022-08-19 07:02:45</t>
+          <t>2022-08-19 20:58:39</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>4905485</t>
+          <t>6153846</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Alkaline Batterie 6LP3146/9V</t>
+          <t>Duracell Knopfzelle CR2032 3V 2 Stück</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/elektroartikel-batterien/batterien/andere-batterien/alkaline-batterie-6lp31469v/p/4905485</t>
+          <t>/de/haushalt-tier/elektroartikel-batterien/batterien/andere-batterien/duracell-knopfzelle-cr2032-3v-2-stueck/p/6153846</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>1ST</t>
+          <t>2ST</t>
         </is>
       </c>
       <c r="E15" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F15" t="n">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>Coop</t>
+          <t>Duracell</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>4.95</t>
+          <t>9.95</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>4.95/1ST</t>
+          <t>4.98/1ST</t>
         </is>
       </c>
       <c r="J15" t="inlineStr">
@@ -1502,7 +1500,7 @@
       </c>
       <c r="K15" t="inlineStr">
         <is>
-          <t>4.95</t>
+          <t>4.98</t>
         </is>
       </c>
       <c r="L15" t="inlineStr">
@@ -1517,53 +1515,55 @@
       </c>
       <c r="N15" t="inlineStr">
         <is>
-          <t>Alkaline Batterie 6LP3146/9V 4.95 Schweizer Franken</t>
+          <t>Duracell Knopfzelle CR2032 3V 2 Stück 9.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="O15" t="inlineStr">
         <is>
-          <t>2022-08-19 07:02:45</t>
+          <t>2022-08-19 20:58:39</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>6801782</t>
+          <t>4905485</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Duracell Batterien Plus AAA/LR03 12 Stück</t>
+          <t>Alkaline Batterie 6LP3146/9V</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/elektroartikel-batterien/batterien/aaa/duracell-batterien-plus-aaalr03-12-stueck/p/6801782</t>
+          <t>/de/haushalt-tier/elektroartikel-batterien/batterien/andere-batterien/alkaline-batterie-6lp31469v/p/4905485</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>12ST</t>
-        </is>
-      </c>
-      <c r="E16" t="inlineStr"/>
+          <t>1ST</t>
+        </is>
+      </c>
+      <c r="E16" t="n">
+        <v>2</v>
+      </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>4.5</v>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>Duracell</t>
+          <t>Coop</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>14.90</t>
+          <t>4.95</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>1.24/1ST</t>
+          <t>4.95/1ST</t>
         </is>
       </c>
       <c r="J16" t="inlineStr">
@@ -1573,7 +1573,7 @@
       </c>
       <c r="K16" t="inlineStr">
         <is>
-          <t>1.24</t>
+          <t>4.95</t>
         </is>
       </c>
       <c r="L16" t="inlineStr">
@@ -1583,17 +1583,17 @@
       </c>
       <c r="M16" t="inlineStr">
         <is>
-          <t>['haushalt-tier', 'elektroartikel-batterien', 'batterien', 'aaa']</t>
+          <t>['haushalt-tier', 'elektroartikel-batterien', 'batterien', 'andere-batterien']</t>
         </is>
       </c>
       <c r="N16" t="inlineStr">
         <is>
-          <t>Duracell Batterien Plus AAA/LR03 12 Stück 50% Aktion 14.90 Schweizer Franken statt 29.85 Schweizer Franken</t>
+          <t>Alkaline Batterie 6LP3146/9V 4.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="O16" t="inlineStr">
         <is>
-          <t>2022-08-19 07:02:45</t>
+          <t>2022-08-19 20:58:39</t>
         </is>
       </c>
     </row>
@@ -1664,7 +1664,7 @@
       </c>
       <c r="O17" t="inlineStr">
         <is>
-          <t>2022-08-19 07:02:45</t>
+          <t>2022-08-19 20:58:39</t>
         </is>
       </c>
     </row>
@@ -1735,7 +1735,7 @@
       </c>
       <c r="O18" t="inlineStr">
         <is>
-          <t>2022-08-19 07:02:45</t>
+          <t>2022-08-19 20:58:39</t>
         </is>
       </c>
     </row>
@@ -1806,7 +1806,7 @@
       </c>
       <c r="O19" t="inlineStr">
         <is>
-          <t>2022-08-19 07:02:45</t>
+          <t>2022-08-19 20:58:39</t>
         </is>
       </c>
     </row>
@@ -1879,7 +1879,7 @@
       </c>
       <c r="O20" t="inlineStr">
         <is>
-          <t>2022-08-19 07:02:45</t>
+          <t>2022-08-19 20:58:39</t>
         </is>
       </c>
     </row>
@@ -1950,7 +1950,7 @@
       </c>
       <c r="O21" t="inlineStr">
         <is>
-          <t>2022-08-19 07:02:45</t>
+          <t>2022-08-19 20:58:39</t>
         </is>
       </c>
     </row>
@@ -2023,7 +2023,7 @@
       </c>
       <c r="O22" t="inlineStr">
         <is>
-          <t>2022-08-19 07:02:45</t>
+          <t>2022-08-19 20:58:39</t>
         </is>
       </c>
     </row>
@@ -2094,24 +2094,24 @@
       </c>
       <c r="O23" t="inlineStr">
         <is>
-          <t>2022-08-19 07:02:45</t>
+          <t>2022-08-19 20:58:39</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>3494234</t>
+          <t>3494233</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Varta Electronics V13GA 1er Bli</t>
+          <t>Varta Electronics CR2032 1er Bli</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/elektroartikel-batterien/batterien/andere-batterien/varta-electronics-v13ga-1er-bli/p/3494234</t>
+          <t>/de/haushalt-tier/elektroartikel-batterien/batterien/andere-batterien/varta-electronics-cr2032-1er-bli/p/3494233</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
@@ -2119,9 +2119,11 @@
           <t>1ST</t>
         </is>
       </c>
-      <c r="E24" t="inlineStr"/>
+      <c r="E24" t="n">
+        <v>2</v>
+      </c>
       <c r="F24" t="n">
-        <v>0</v>
+        <v>4.5</v>
       </c>
       <c r="G24" t="inlineStr">
         <is>
@@ -2130,12 +2132,12 @@
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>2.95</t>
+          <t>4.95</t>
         </is>
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>2.95/1ST</t>
+          <t>4.95/1ST</t>
         </is>
       </c>
       <c r="J24" t="inlineStr">
@@ -2145,7 +2147,7 @@
       </c>
       <c r="K24" t="inlineStr">
         <is>
-          <t>2.95</t>
+          <t>4.95</t>
         </is>
       </c>
       <c r="L24" t="inlineStr">
@@ -2160,29 +2162,29 @@
       </c>
       <c r="N24" t="inlineStr">
         <is>
-          <t>Varta Electronics V13GA 1er Bli 2.95 Schweizer Franken</t>
+          <t>Varta Electronics CR2032 1er Bli 4.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="O24" t="inlineStr">
         <is>
-          <t>2022-08-19 07:02:45</t>
+          <t>2022-08-19 20:58:39</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>3494233</t>
+          <t>3494234</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Varta Electronics CR2032 1er Bli</t>
+          <t>Varta Electronics V13GA 1er Bli</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/elektroartikel-batterien/batterien/andere-batterien/varta-electronics-cr2032-1er-bli/p/3494233</t>
+          <t>/de/haushalt-tier/elektroartikel-batterien/batterien/andere-batterien/varta-electronics-v13ga-1er-bli/p/3494234</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
@@ -2190,11 +2192,9 @@
           <t>1ST</t>
         </is>
       </c>
-      <c r="E25" t="n">
-        <v>2</v>
-      </c>
+      <c r="E25" t="inlineStr"/>
       <c r="F25" t="n">
-        <v>4.5</v>
+        <v>0</v>
       </c>
       <c r="G25" t="inlineStr">
         <is>
@@ -2203,12 +2203,12 @@
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>4.95</t>
+          <t>2.95</t>
         </is>
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>4.95/1ST</t>
+          <t>2.95/1ST</t>
         </is>
       </c>
       <c r="J25" t="inlineStr">
@@ -2218,7 +2218,7 @@
       </c>
       <c r="K25" t="inlineStr">
         <is>
-          <t>4.95</t>
+          <t>2.95</t>
         </is>
       </c>
       <c r="L25" t="inlineStr">
@@ -2233,12 +2233,12 @@
       </c>
       <c r="N25" t="inlineStr">
         <is>
-          <t>Varta Electronics CR2032 1er Bli 4.95 Schweizer Franken</t>
+          <t>Varta Electronics V13GA 1er Bli 2.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="O25" t="inlineStr">
         <is>
-          <t>2022-08-19 07:02:45</t>
+          <t>2022-08-19 20:58:39</t>
         </is>
       </c>
     </row>
@@ -2309,7 +2309,7 @@
       </c>
       <c r="O26" t="inlineStr">
         <is>
-          <t>2022-08-19 07:02:45</t>
+          <t>2022-08-19 20:58:39</t>
         </is>
       </c>
     </row>
@@ -2380,7 +2380,7 @@
       </c>
       <c r="O27" t="inlineStr">
         <is>
-          <t>2022-08-19 07:02:45</t>
+          <t>2022-08-19 20:58:39</t>
         </is>
       </c>
     </row>
@@ -2453,7 +2453,7 @@
       </c>
       <c r="O28" t="inlineStr">
         <is>
-          <t>2022-08-19 07:02:45</t>
+          <t>2022-08-19 20:58:39</t>
         </is>
       </c>
     </row>
@@ -2524,7 +2524,7 @@
       </c>
       <c r="O29" t="inlineStr">
         <is>
-          <t>2022-08-19 07:02:45</t>
+          <t>2022-08-19 20:58:39</t>
         </is>
       </c>
     </row>
@@ -2597,7 +2597,7 @@
       </c>
       <c r="O30" t="inlineStr">
         <is>
-          <t>2022-08-19 07:02:45</t>
+          <t>2022-08-19 20:58:39</t>
         </is>
       </c>
     </row>
@@ -2670,7 +2670,7 @@
       </c>
       <c r="O31" t="inlineStr">
         <is>
-          <t>2022-08-19 07:02:45</t>
+          <t>2022-08-19 20:58:39</t>
         </is>
       </c>
     </row>
@@ -2743,7 +2743,7 @@
       </c>
       <c r="O32" t="inlineStr">
         <is>
-          <t>2022-08-19 07:02:45</t>
+          <t>2022-08-19 20:58:39</t>
         </is>
       </c>
     </row>
@@ -2816,7 +2816,7 @@
       </c>
       <c r="O33" t="inlineStr">
         <is>
-          <t>2022-08-19 07:02:45</t>
+          <t>2022-08-19 20:58:39</t>
         </is>
       </c>
     </row>
@@ -2889,7 +2889,7 @@
       </c>
       <c r="O34" t="inlineStr">
         <is>
-          <t>2022-08-19 07:02:45</t>
+          <t>2022-08-19 20:58:39</t>
         </is>
       </c>
     </row>
@@ -2940,7 +2940,7 @@
       </c>
       <c r="O35" t="inlineStr">
         <is>
-          <t>2022-08-19 07:02:45</t>
+          <t>2022-08-19 20:58:39</t>
         </is>
       </c>
     </row>
@@ -2991,50 +2991,50 @@
       </c>
       <c r="O36" t="inlineStr">
         <is>
-          <t>2022-08-19 07:02:45</t>
+          <t>2022-08-19 20:58:39</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>5683906</t>
+          <t>3494065</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>Prix Garantie Wasserkocher 1l</t>
+          <t>Varta Longlife Max Power AA 4er Bli</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/elektroartikel-batterien/elektrogeraete/kuechengeraete/prix-garantie-wasserkocher-1l/p/5683906</t>
+          <t>/de/haushalt-tier/elektroartikel-batterien/batterien/aa/varta-longlife-max-power-aa-4er-bli/p/3494065</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>1ST</t>
+          <t>4ST</t>
         </is>
       </c>
       <c r="E37" t="n">
+        <v>1</v>
+      </c>
+      <c r="F37" t="n">
         <v>5</v>
       </c>
-      <c r="F37" t="n">
-        <v>4</v>
-      </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>Coop</t>
+          <t>Varta</t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>19.95</t>
+          <t>9.95</t>
         </is>
       </c>
       <c r="I37" t="inlineStr">
         <is>
-          <t>19.95/1ST</t>
+          <t>2.49/1ST</t>
         </is>
       </c>
       <c r="J37" t="inlineStr">
@@ -3044,7 +3044,7 @@
       </c>
       <c r="K37" t="inlineStr">
         <is>
-          <t>19.95</t>
+          <t>2.49</t>
         </is>
       </c>
       <c r="L37" t="inlineStr">
@@ -3054,60 +3054,60 @@
       </c>
       <c r="M37" t="inlineStr">
         <is>
-          <t>['haushalt-tier', 'elektroartikel-batterien', 'elektrogeraete', 'kuechengeraete']</t>
+          <t>['haushalt-tier', 'elektroartikel-batterien', 'batterien', 'aa']</t>
         </is>
       </c>
       <c r="N37" t="inlineStr">
         <is>
-          <t>Prix Garantie Wasserkocher 1l 19.95 Schweizer Franken</t>
+          <t>Varta Longlife Max Power AA 4er Bli 9.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="O37" t="inlineStr">
         <is>
-          <t>2022-08-19 07:02:45</t>
+          <t>2022-08-19 20:58:39</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>3494065</t>
+          <t>5683906</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>Varta Longlife Max Power AA 4er Bli</t>
+          <t>Prix Garantie Wasserkocher 1l</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/elektroartikel-batterien/batterien/aa/varta-longlife-max-power-aa-4er-bli/p/3494065</t>
+          <t>/de/haushalt-tier/elektroartikel-batterien/elektrogeraete/kuechengeraete/prix-garantie-wasserkocher-1l/p/5683906</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>4ST</t>
+          <t>1ST</t>
         </is>
       </c>
       <c r="E38" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="F38" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>Varta</t>
+          <t>Coop</t>
         </is>
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>9.95</t>
+          <t>19.95</t>
         </is>
       </c>
       <c r="I38" t="inlineStr">
         <is>
-          <t>2.49/1ST</t>
+          <t>19.95/1ST</t>
         </is>
       </c>
       <c r="J38" t="inlineStr">
@@ -3117,7 +3117,7 @@
       </c>
       <c r="K38" t="inlineStr">
         <is>
-          <t>2.49</t>
+          <t>19.95</t>
         </is>
       </c>
       <c r="L38" t="inlineStr">
@@ -3127,17 +3127,17 @@
       </c>
       <c r="M38" t="inlineStr">
         <is>
-          <t>['haushalt-tier', 'elektroartikel-batterien', 'batterien', 'aa']</t>
+          <t>['haushalt-tier', 'elektroartikel-batterien', 'elektrogeraete', 'kuechengeraete']</t>
         </is>
       </c>
       <c r="N38" t="inlineStr">
         <is>
-          <t>Varta Longlife Max Power AA 4er Bli 9.95 Schweizer Franken</t>
+          <t>Prix Garantie Wasserkocher 1l 19.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="O38" t="inlineStr">
         <is>
-          <t>2022-08-19 07:02:45</t>
+          <t>2022-08-19 20:58:39</t>
         </is>
       </c>
     </row>
@@ -3208,7 +3208,7 @@
       </c>
       <c r="O39" t="inlineStr">
         <is>
-          <t>2022-08-19 07:02:45</t>
+          <t>2022-08-19 20:58:39</t>
         </is>
       </c>
     </row>
@@ -3281,7 +3281,7 @@
       </c>
       <c r="O40" t="inlineStr">
         <is>
-          <t>2022-08-19 07:02:45</t>
+          <t>2022-08-19 20:58:39</t>
         </is>
       </c>
     </row>
@@ -3354,7 +3354,7 @@
       </c>
       <c r="O41" t="inlineStr">
         <is>
-          <t>2022-08-19 07:02:45</t>
+          <t>2022-08-19 20:58:39</t>
         </is>
       </c>
     </row>
@@ -3427,7 +3427,7 @@
       </c>
       <c r="O42" t="inlineStr">
         <is>
-          <t>2022-08-19 07:02:45</t>
+          <t>2022-08-19 20:58:39</t>
         </is>
       </c>
     </row>
@@ -3480,7 +3480,7 @@
       </c>
       <c r="O43" t="inlineStr">
         <is>
-          <t>2022-08-19 07:02:45</t>
+          <t>2022-08-19 20:58:39</t>
         </is>
       </c>
     </row>
@@ -3551,7 +3551,7 @@
       </c>
       <c r="O44" t="inlineStr">
         <is>
-          <t>2022-08-19 07:02:45</t>
+          <t>2022-08-19 20:58:39</t>
         </is>
       </c>
     </row>
@@ -3604,7 +3604,7 @@
       </c>
       <c r="O45" t="inlineStr">
         <is>
-          <t>2022-08-19 07:02:45</t>
+          <t>2022-08-19 20:58:39</t>
         </is>
       </c>
     </row>
@@ -3655,32 +3655,30 @@
       </c>
       <c r="O46" t="inlineStr">
         <is>
-          <t>2022-08-19 07:02:45</t>
+          <t>2022-08-19 20:58:39</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>5750424</t>
+          <t>5831402</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>satrap Vento HT2 Reisehaartrockner</t>
+          <t>Satrap Mikrowelle Micro M2</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/elektroartikel-batterien/elektrogeraete/beautygeraete/satrap-vento-ht2-reisehaartrockner/p/5750424</t>
+          <t>/de/haushalt-tier/elektroartikel-batterien/elektrogeraete/kuechengeraete/satrap-mikrowelle-micro-m2/p/5831402</t>
         </is>
       </c>
       <c r="D47" t="inlineStr"/>
-      <c r="E47" t="n">
-        <v>1</v>
-      </c>
+      <c r="E47" t="inlineStr"/>
       <c r="F47" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="G47" t="inlineStr">
         <is>
@@ -3689,7 +3687,7 @@
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>29.95</t>
+          <t>49.95</t>
         </is>
       </c>
       <c r="I47" t="inlineStr"/>
@@ -3698,34 +3696,34 @@
       <c r="L47" t="inlineStr"/>
       <c r="M47" t="inlineStr">
         <is>
-          <t>['haushalt-tier', 'elektroartikel-batterien', 'elektrogeraete', 'beautygeraete']</t>
+          <t>['haushalt-tier', 'elektroartikel-batterien', 'elektrogeraete', 'kuechengeraete']</t>
         </is>
       </c>
       <c r="N47" t="inlineStr">
         <is>
-          <t>satrap Vento HT2 Reisehaartrockner 29.95 Schweizer Franken</t>
+          <t>Satrap Mikrowelle Micro M2 50% Aktion 49.95 Schweizer Franken statt 99.90 Schweizer Franken</t>
         </is>
       </c>
       <c r="O47" t="inlineStr">
         <is>
-          <t>2022-08-19 07:02:45</t>
+          <t>2022-08-19 20:58:39</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>6973029</t>
+          <t>5750424</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>Severin Tischgrill PG 8565</t>
+          <t>satrap Vento HT2 Reisehaartrockner</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/elektroartikel-batterien/elektrogeraete/kuechengeraete/severin-tischgrill-pg-8565/p/6973029</t>
+          <t>/de/haushalt-tier/elektroartikel-batterien/elektrogeraete/beautygeraete/satrap-vento-ht2-reisehaartrockner/p/5750424</t>
         </is>
       </c>
       <c r="D48" t="inlineStr"/>
@@ -3733,16 +3731,16 @@
         <v>1</v>
       </c>
       <c r="F48" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>Severin</t>
+          <t>satrap</t>
         </is>
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>49.95</t>
+          <t>29.95</t>
         </is>
       </c>
       <c r="I48" t="inlineStr"/>
@@ -3751,49 +3749,51 @@
       <c r="L48" t="inlineStr"/>
       <c r="M48" t="inlineStr">
         <is>
-          <t>['haushalt-tier', 'elektroartikel-batterien', 'elektrogeraete', 'kuechengeraete']</t>
+          <t>['haushalt-tier', 'elektroartikel-batterien', 'elektrogeraete', 'beautygeraete']</t>
         </is>
       </c>
       <c r="N48" t="inlineStr">
         <is>
-          <t>Severin Tischgrill PG 8565 50% Aktion 49.95 Schweizer Franken statt 99.95 Schweizer Franken</t>
+          <t>satrap Vento HT2 Reisehaartrockner 29.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="O48" t="inlineStr">
         <is>
-          <t>2022-08-19 07:02:45</t>
+          <t>2022-08-19 20:58:39</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>4942594</t>
+          <t>6973029</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>Skross Adapter World-Schweiz</t>
+          <t>Severin Tischgrill PG 8565</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/elektroartikel-batterien/elektrogeraete/haushaltsgeraete-kabel/skross-adapter-world-schweiz/p/4942594</t>
+          <t>/de/haushalt-tier/elektroartikel-batterien/elektrogeraete/kuechengeraete/severin-tischgrill-pg-8565/p/6973029</t>
         </is>
       </c>
       <c r="D49" t="inlineStr"/>
-      <c r="E49" t="inlineStr"/>
+      <c r="E49" t="n">
+        <v>1</v>
+      </c>
       <c r="F49" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>Skross</t>
+          <t>Severin</t>
         </is>
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>19.95</t>
+          <t>49.95</t>
         </is>
       </c>
       <c r="I49" t="inlineStr"/>
@@ -3802,263 +3802,263 @@
       <c r="L49" t="inlineStr"/>
       <c r="M49" t="inlineStr">
         <is>
-          <t>['haushalt-tier', 'elektroartikel-batterien', 'elektrogeraete', 'haushaltsgeraete-kabel']</t>
+          <t>['haushalt-tier', 'elektroartikel-batterien', 'elektrogeraete', 'kuechengeraete']</t>
         </is>
       </c>
       <c r="N49" t="inlineStr">
         <is>
-          <t>Skross Adapter World-Schweiz 19.95 Schweizer Franken</t>
+          <t>Severin Tischgrill PG 8565 50% Aktion 49.95 Schweizer Franken statt 99.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="O49" t="inlineStr">
         <is>
-          <t>2022-08-19 07:02:45</t>
+          <t>2022-08-19 20:58:39</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>4096751</t>
+          <t>6119284</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>Varta Longlife Power Batterien AA/LR6 6 Stück</t>
+          <t>satrap Aqua SA10 Wasserkocher</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/elektroartikel-batterien/batterien/aa/varta-longlife-power-batterien-aalr6-6-stueck/p/4096751</t>
-        </is>
-      </c>
-      <c r="D50" t="inlineStr">
-        <is>
-          <t>6ST</t>
-        </is>
-      </c>
-      <c r="E50" t="inlineStr"/>
+          <t>/de/haushalt-tier/elektroartikel-batterien/elektrogeraete/kuechengeraete/satrap-aqua-sa10-wasserkocher/p/6119284</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr"/>
+      <c r="E50" t="n">
+        <v>3</v>
+      </c>
       <c r="F50" t="n">
-        <v>0</v>
+        <v>2.5</v>
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>Varta</t>
+          <t>satrap</t>
         </is>
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>12.95</t>
-        </is>
-      </c>
-      <c r="I50" t="inlineStr">
-        <is>
-          <t>2.16/1ST</t>
-        </is>
-      </c>
-      <c r="J50" t="inlineStr">
-        <is>
-          <t>Preis pro 1 Stück</t>
-        </is>
-      </c>
-      <c r="K50" t="inlineStr">
-        <is>
-          <t>2.16</t>
-        </is>
-      </c>
-      <c r="L50" t="inlineStr">
-        <is>
-          <t>1ST</t>
-        </is>
-      </c>
+          <t>49.95</t>
+        </is>
+      </c>
+      <c r="I50" t="inlineStr"/>
+      <c r="J50" t="inlineStr"/>
+      <c r="K50" t="inlineStr"/>
+      <c r="L50" t="inlineStr"/>
       <c r="M50" t="inlineStr">
         <is>
-          <t>['haushalt-tier', 'elektroartikel-batterien', 'batterien', 'aa']</t>
+          <t>['haushalt-tier', 'elektroartikel-batterien', 'elektrogeraete', 'kuechengeraete']</t>
         </is>
       </c>
       <c r="N50" t="inlineStr">
         <is>
-          <t>Varta Longlife Power Batterien AA/LR6 6 Stück 12.95 Schweizer Franken</t>
+          <t>satrap Aqua SA10 Wasserkocher 49.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="O50" t="inlineStr">
         <is>
-          <t>2022-08-19 07:02:45</t>
+          <t>2022-08-19 20:58:39</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>3494007</t>
+          <t>4942594</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>Varta Longlife Power D 2er Bli</t>
+          <t>Skross Adapter World-Schweiz</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/elektroartikel-batterien/batterien/andere-batterien/varta-longlife-power-d-2er-bli/p/3494007</t>
-        </is>
-      </c>
-      <c r="D51" t="inlineStr">
-        <is>
-          <t>2ST</t>
-        </is>
-      </c>
+          <t>/de/haushalt-tier/elektroartikel-batterien/elektrogeraete/haushaltsgeraete-kabel/skross-adapter-world-schweiz/p/4942594</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr"/>
       <c r="E51" t="inlineStr"/>
       <c r="F51" t="n">
         <v>0</v>
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>Varta</t>
+          <t>Skross</t>
         </is>
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>8.95</t>
-        </is>
-      </c>
-      <c r="I51" t="inlineStr">
-        <is>
-          <t>4.48/1ST</t>
-        </is>
-      </c>
-      <c r="J51" t="inlineStr">
-        <is>
-          <t>Preis pro 1 Stück</t>
-        </is>
-      </c>
-      <c r="K51" t="inlineStr">
-        <is>
-          <t>4.48</t>
-        </is>
-      </c>
-      <c r="L51" t="inlineStr">
-        <is>
-          <t>1ST</t>
-        </is>
-      </c>
+          <t>19.95</t>
+        </is>
+      </c>
+      <c r="I51" t="inlineStr"/>
+      <c r="J51" t="inlineStr"/>
+      <c r="K51" t="inlineStr"/>
+      <c r="L51" t="inlineStr"/>
       <c r="M51" t="inlineStr">
         <is>
-          <t>['haushalt-tier', 'elektroartikel-batterien', 'batterien', 'andere-batterien']</t>
+          <t>['haushalt-tier', 'elektroartikel-batterien', 'elektrogeraete', 'haushaltsgeraete-kabel']</t>
         </is>
       </c>
       <c r="N51" t="inlineStr">
         <is>
-          <t>Varta Longlife Power D 2er Bli 8.95 Schweizer Franken</t>
+          <t>Skross Adapter World-Schweiz 19.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="O51" t="inlineStr">
         <is>
-          <t>2022-08-19 07:02:45</t>
+          <t>2022-08-19 20:58:39</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>6119284</t>
+          <t>4096751</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>satrap Aqua SA10 Wasserkocher</t>
+          <t>Varta Longlife Power Batterien AA/LR6 6 Stück</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/elektroartikel-batterien/elektrogeraete/kuechengeraete/satrap-aqua-sa10-wasserkocher/p/6119284</t>
-        </is>
-      </c>
-      <c r="D52" t="inlineStr"/>
-      <c r="E52" t="n">
-        <v>3</v>
-      </c>
+          <t>/de/haushalt-tier/elektroartikel-batterien/batterien/aa/varta-longlife-power-batterien-aalr6-6-stueck/p/4096751</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>6ST</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr"/>
       <c r="F52" t="n">
-        <v>2.5</v>
+        <v>0</v>
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>satrap</t>
+          <t>Varta</t>
         </is>
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>49.95</t>
-        </is>
-      </c>
-      <c r="I52" t="inlineStr"/>
-      <c r="J52" t="inlineStr"/>
-      <c r="K52" t="inlineStr"/>
-      <c r="L52" t="inlineStr"/>
+          <t>12.95</t>
+        </is>
+      </c>
+      <c r="I52" t="inlineStr">
+        <is>
+          <t>2.16/1ST</t>
+        </is>
+      </c>
+      <c r="J52" t="inlineStr">
+        <is>
+          <t>Preis pro 1 Stück</t>
+        </is>
+      </c>
+      <c r="K52" t="inlineStr">
+        <is>
+          <t>2.16</t>
+        </is>
+      </c>
+      <c r="L52" t="inlineStr">
+        <is>
+          <t>1ST</t>
+        </is>
+      </c>
       <c r="M52" t="inlineStr">
         <is>
-          <t>['haushalt-tier', 'elektroartikel-batterien', 'elektrogeraete', 'kuechengeraete']</t>
+          <t>['haushalt-tier', 'elektroartikel-batterien', 'batterien', 'aa']</t>
         </is>
       </c>
       <c r="N52" t="inlineStr">
         <is>
-          <t>satrap Aqua SA10 Wasserkocher 49.95 Schweizer Franken</t>
+          <t>Varta Longlife Power Batterien AA/LR6 6 Stück 12.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="O52" t="inlineStr">
         <is>
-          <t>2022-08-19 07:02:45</t>
+          <t>2022-08-19 20:58:39</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>5872158</t>
+          <t>3494007</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>satrap Tischventilator Venti 1</t>
+          <t>Varta Longlife Power D 2er Bli</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/elektroartikel-batterien/elektrogeraete/haushaltsgeraete-kabel/satrap-tischventilator-venti-1/p/5872158</t>
-        </is>
-      </c>
-      <c r="D53" t="inlineStr"/>
+          <t>/de/haushalt-tier/elektroartikel-batterien/batterien/andere-batterien/varta-longlife-power-d-2er-bli/p/3494007</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>2ST</t>
+        </is>
+      </c>
       <c r="E53" t="inlineStr"/>
       <c r="F53" t="n">
         <v>0</v>
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>satrap</t>
+          <t>Varta</t>
         </is>
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>29.95</t>
-        </is>
-      </c>
-      <c r="I53" t="inlineStr"/>
-      <c r="J53" t="inlineStr"/>
-      <c r="K53" t="inlineStr"/>
-      <c r="L53" t="inlineStr"/>
+          <t>8.95</t>
+        </is>
+      </c>
+      <c r="I53" t="inlineStr">
+        <is>
+          <t>4.48/1ST</t>
+        </is>
+      </c>
+      <c r="J53" t="inlineStr">
+        <is>
+          <t>Preis pro 1 Stück</t>
+        </is>
+      </c>
+      <c r="K53" t="inlineStr">
+        <is>
+          <t>4.48</t>
+        </is>
+      </c>
+      <c r="L53" t="inlineStr">
+        <is>
+          <t>1ST</t>
+        </is>
+      </c>
       <c r="M53" t="inlineStr">
         <is>
-          <t>['haushalt-tier', 'elektroartikel-batterien', 'elektrogeraete', 'haushaltsgeraete-kabel']</t>
+          <t>['haushalt-tier', 'elektroartikel-batterien', 'batterien', 'andere-batterien']</t>
         </is>
       </c>
       <c r="N53" t="inlineStr">
         <is>
-          <t>satrap Tischventilator Venti 1 29.95 Schweizer Franken</t>
+          <t>Varta Longlife Power D 2er Bli 8.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="O53" t="inlineStr">
         <is>
-          <t>2022-08-19 07:02:45</t>
+          <t>2022-08-19 20:58:39</t>
         </is>
       </c>
     </row>
@@ -4109,24 +4109,24 @@
       </c>
       <c r="O54" t="inlineStr">
         <is>
-          <t>2022-08-19 07:02:45</t>
+          <t>2022-08-19 20:58:39</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>6579165</t>
+          <t>5872158</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>satrap Trimm Set XA 5-in-1 Haar/Trimm-Set</t>
+          <t>satrap Tischventilator Venti 1</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>/de/kosmetik-gesundheit/herrenpflege-rasur/elektrische-herrenrasierer/satrap-trimm-set-xa-5-in-1-haartrimm-set/p/6579165</t>
+          <t>/de/haushalt-tier/elektroartikel-batterien/elektrogeraete/haushaltsgeraete-kabel/satrap-tischventilator-venti-1/p/5872158</t>
         </is>
       </c>
       <c r="D55" t="inlineStr"/>
@@ -4141,7 +4141,7 @@
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>59.95</t>
+          <t>29.95</t>
         </is>
       </c>
       <c r="I55" t="inlineStr"/>
@@ -4150,17 +4150,17 @@
       <c r="L55" t="inlineStr"/>
       <c r="M55" t="inlineStr">
         <is>
-          <t>['kosmetik-gesundheit', 'herrenpflege-rasur', 'elektrische-herrenrasierer']</t>
+          <t>['haushalt-tier', 'elektroartikel-batterien', 'elektrogeraete', 'haushaltsgeraete-kabel']</t>
         </is>
       </c>
       <c r="N55" t="inlineStr">
         <is>
-          <t>satrap Trimm Set XA 5-in-1 Haar/Trimm-Set 59.95 Schweizer Franken</t>
+          <t>satrap Tischventilator Venti 1 29.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="O55" t="inlineStr">
         <is>
-          <t>2022-08-19 07:02:45</t>
+          <t>2022-08-19 20:58:39</t>
         </is>
       </c>
     </row>
@@ -4231,7 +4231,7 @@
       </c>
       <c r="O56" t="inlineStr">
         <is>
-          <t>2022-08-19 07:02:45</t>
+          <t>2022-08-19 20:58:39</t>
         </is>
       </c>
     </row>
@@ -4304,7 +4304,7 @@
       </c>
       <c r="O57" t="inlineStr">
         <is>
-          <t>2022-08-19 07:02:45</t>
+          <t>2022-08-19 20:58:39</t>
         </is>
       </c>
     </row>
@@ -4355,32 +4355,30 @@
       </c>
       <c r="O58" t="inlineStr">
         <is>
-          <t>2022-08-19 07:02:45</t>
+          <t>2022-08-19 20:58:39</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>5751209</t>
+          <t>6579165</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>satrap Ferru BE1 2200 Dampfbügeleisen</t>
+          <t>satrap Trimm Set XA 5-in-1 Haar/Trimm-Set</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/elektroartikel-batterien/elektrogeraete/haushaltsgeraete-kabel/satrap-ferru-be1-2200-dampfbuegeleisen/p/5751209</t>
+          <t>/de/kosmetik-gesundheit/herrenpflege-rasur/elektrische-herrenrasierer/satrap-trimm-set-xa-5-in-1-haartrimm-set/p/6579165</t>
         </is>
       </c>
       <c r="D59" t="inlineStr"/>
-      <c r="E59" t="n">
-        <v>3</v>
-      </c>
+      <c r="E59" t="inlineStr"/>
       <c r="F59" t="n">
-        <v>2.5</v>
+        <v>0</v>
       </c>
       <c r="G59" t="inlineStr">
         <is>
@@ -4389,7 +4387,7 @@
       </c>
       <c r="H59" t="inlineStr">
         <is>
-          <t>49.95</t>
+          <t>59.95</t>
         </is>
       </c>
       <c r="I59" t="inlineStr"/>
@@ -4398,17 +4396,17 @@
       <c r="L59" t="inlineStr"/>
       <c r="M59" t="inlineStr">
         <is>
-          <t>['haushalt-tier', 'elektroartikel-batterien', 'elektrogeraete', 'haushaltsgeraete-kabel']</t>
+          <t>['kosmetik-gesundheit', 'herrenpflege-rasur', 'elektrische-herrenrasierer']</t>
         </is>
       </c>
       <c r="N59" t="inlineStr">
         <is>
-          <t>satrap Ferru BE1 2200 Dampfbügeleisen 49.95 Schweizer Franken</t>
+          <t>satrap Trimm Set XA 5-in-1 Haar/Trimm-Set 59.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="O59" t="inlineStr">
         <is>
-          <t>2022-08-19 07:02:45</t>
+          <t>2022-08-19 20:58:39</t>
         </is>
       </c>
     </row>
@@ -4461,7 +4459,7 @@
       </c>
       <c r="O60" t="inlineStr">
         <is>
-          <t>2022-08-19 07:02:45</t>
+          <t>2022-08-19 20:58:39</t>
         </is>
       </c>
     </row>
@@ -4534,7 +4532,7 @@
       </c>
       <c r="O61" t="inlineStr">
         <is>
-          <t>2022-08-19 07:02:45</t>
+          <t>2022-08-19 20:58:39</t>
         </is>
       </c>
     </row>
@@ -4605,7 +4603,7 @@
       </c>
       <c r="O62" t="inlineStr">
         <is>
-          <t>2022-08-19 07:02:45</t>
+          <t>2022-08-19 20:58:39</t>
         </is>
       </c>
     </row>
@@ -4676,7 +4674,7 @@
       </c>
       <c r="O63" t="inlineStr">
         <is>
-          <t>2022-08-19 07:02:45</t>
+          <t>2022-08-19 20:58:39</t>
         </is>
       </c>
     </row>
@@ -4747,121 +4745,101 @@
       </c>
       <c r="O64" t="inlineStr">
         <is>
-          <t>2022-08-19 07:02:45</t>
+          <t>2022-08-19 20:58:39</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>4589934</t>
+          <t>5751209</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>Varta Longlife AA 4er Bli</t>
+          <t>satrap Ferru BE1 2200 Dampfbügeleisen</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/elektroartikel-batterien/batterien/aa/varta-longlife-aa-4er-bli/p/4589934</t>
-        </is>
-      </c>
-      <c r="D65" t="inlineStr">
-        <is>
-          <t>4ST</t>
-        </is>
-      </c>
-      <c r="E65" t="inlineStr"/>
+          <t>/de/haushalt-tier/elektroartikel-batterien/elektrogeraete/haushaltsgeraete-kabel/satrap-ferru-be1-2200-dampfbuegeleisen/p/5751209</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr"/>
+      <c r="E65" t="n">
+        <v>3</v>
+      </c>
       <c r="F65" t="n">
-        <v>0</v>
+        <v>2.5</v>
       </c>
       <c r="G65" t="inlineStr">
         <is>
-          <t>Varta</t>
+          <t>satrap</t>
         </is>
       </c>
       <c r="H65" t="inlineStr">
         <is>
-          <t>7.95</t>
-        </is>
-      </c>
-      <c r="I65" t="inlineStr">
-        <is>
-          <t>1.99/1ST</t>
-        </is>
-      </c>
-      <c r="J65" t="inlineStr">
-        <is>
-          <t>Preis pro 1 Stück</t>
-        </is>
-      </c>
-      <c r="K65" t="inlineStr">
-        <is>
-          <t>1.99</t>
-        </is>
-      </c>
-      <c r="L65" t="inlineStr">
-        <is>
-          <t>1ST</t>
-        </is>
-      </c>
+          <t>49.95</t>
+        </is>
+      </c>
+      <c r="I65" t="inlineStr"/>
+      <c r="J65" t="inlineStr"/>
+      <c r="K65" t="inlineStr"/>
+      <c r="L65" t="inlineStr"/>
       <c r="M65" t="inlineStr">
         <is>
-          <t>['haushalt-tier', 'elektroartikel-batterien', 'batterien', 'aa']</t>
+          <t>['haushalt-tier', 'elektroartikel-batterien', 'elektrogeraete', 'haushaltsgeraete-kabel']</t>
         </is>
       </c>
       <c r="N65" t="inlineStr">
         <is>
-          <t>Varta Longlife AA 4er Bli 7.95 Schweizer Franken</t>
+          <t>satrap Ferru BE1 2200 Dampfbügeleisen 49.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="O65" t="inlineStr">
         <is>
-          <t>2022-08-19 07:02:45</t>
+          <t>2022-08-19 20:58:39</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>4358322</t>
+          <t>4589934</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>Rayovac Hörgerätebatterien 13 6 Stück</t>
+          <t>Varta Longlife AA 4er Bli</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/elektroartikel-batterien/batterien/andere-batterien/rayovac-hoergeraetebatterien-13-6-stueck/p/4358322</t>
+          <t>/de/haushalt-tier/elektroartikel-batterien/batterien/aa/varta-longlife-aa-4er-bli/p/4589934</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>6ST</t>
-        </is>
-      </c>
-      <c r="E66" t="n">
-        <v>1</v>
-      </c>
+          <t>4ST</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr"/>
       <c r="F66" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="G66" t="inlineStr">
         <is>
-          <t>Rayovac</t>
+          <t>Varta</t>
         </is>
       </c>
       <c r="H66" t="inlineStr">
         <is>
-          <t>9.95</t>
+          <t>7.95</t>
         </is>
       </c>
       <c r="I66" t="inlineStr">
         <is>
-          <t>1.66/1ST</t>
+          <t>1.99/1ST</t>
         </is>
       </c>
       <c r="J66" t="inlineStr">
@@ -4871,7 +4849,7 @@
       </c>
       <c r="K66" t="inlineStr">
         <is>
-          <t>1.66</t>
+          <t>1.99</t>
         </is>
       </c>
       <c r="L66" t="inlineStr">
@@ -4881,34 +4859,34 @@
       </c>
       <c r="M66" t="inlineStr">
         <is>
-          <t>['haushalt-tier', 'elektroartikel-batterien', 'batterien', 'andere-batterien']</t>
+          <t>['haushalt-tier', 'elektroartikel-batterien', 'batterien', 'aa']</t>
         </is>
       </c>
       <c r="N66" t="inlineStr">
         <is>
-          <t>Rayovac Hörgerätebatterien 13 6 Stück 9.95 Schweizer Franken</t>
+          <t>Varta Longlife AA 4er Bli 7.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="O66" t="inlineStr">
         <is>
-          <t>2022-08-19 07:02:45</t>
+          <t>2022-08-19 20:58:39</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>6831289</t>
+          <t>4881282</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>Rowenta Staubsauger RO2933</t>
+          <t>Miele FJM HyClean 3D (4 Stück)</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/elektroartikel-batterien/elektrogeraete/haushaltsgeraete-kabel/rowenta-staubsauger-ro2933/p/6831289</t>
+          <t>/de/haushalt-tier/elektroartikel-batterien/elektrogeraete/haushaltsgeraete-kabel/miele-fjm-hyclean-3d-4-stueck/p/4881282</t>
         </is>
       </c>
       <c r="D67" t="inlineStr"/>
@@ -4918,12 +4896,12 @@
       </c>
       <c r="G67" t="inlineStr">
         <is>
-          <t>Rowenta</t>
+          <t>Miele</t>
         </is>
       </c>
       <c r="H67" t="inlineStr">
         <is>
-          <t>99.90</t>
+          <t>8.95</t>
         </is>
       </c>
       <c r="I67" t="inlineStr"/>
@@ -4937,170 +4915,168 @@
       </c>
       <c r="N67" t="inlineStr">
         <is>
-          <t>Rowenta Staubsauger RO2933 40% Aktion 99.90 Schweizer Franken statt 169.00 Schweizer Franken</t>
+          <t>Miele FJM HyClean 3D (4 Stück) 50% Aktion 8.95 Schweizer Franken statt 17.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="O67" t="inlineStr">
         <is>
-          <t>2022-08-19 07:02:45</t>
+          <t>2022-08-19 20:58:39</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>6753975</t>
+          <t>4358322</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>Severin Standgrill mit Grillplatte PG 8563</t>
+          <t>Rayovac Hörgerätebatterien 13 6 Stück</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/elektroartikel-batterien/elektrogeraete/kuechengeraete/severin-standgrill-mit-grillplatte-pg-8563/p/6753975</t>
-        </is>
-      </c>
-      <c r="D68" t="inlineStr"/>
-      <c r="E68" t="inlineStr"/>
+          <t>/de/haushalt-tier/elektroartikel-batterien/batterien/andere-batterien/rayovac-hoergeraetebatterien-13-6-stueck/p/4358322</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>6ST</t>
+        </is>
+      </c>
+      <c r="E68" t="n">
+        <v>1</v>
+      </c>
       <c r="F68" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="G68" t="inlineStr">
         <is>
-          <t>Severin</t>
+          <t>Rayovac</t>
         </is>
       </c>
       <c r="H68" t="inlineStr">
         <is>
-          <t>74.50</t>
-        </is>
-      </c>
-      <c r="I68" t="inlineStr"/>
-      <c r="J68" t="inlineStr"/>
-      <c r="K68" t="inlineStr"/>
-      <c r="L68" t="inlineStr"/>
+          <t>9.95</t>
+        </is>
+      </c>
+      <c r="I68" t="inlineStr">
+        <is>
+          <t>1.66/1ST</t>
+        </is>
+      </c>
+      <c r="J68" t="inlineStr">
+        <is>
+          <t>Preis pro 1 Stück</t>
+        </is>
+      </c>
+      <c r="K68" t="inlineStr">
+        <is>
+          <t>1.66</t>
+        </is>
+      </c>
+      <c r="L68" t="inlineStr">
+        <is>
+          <t>1ST</t>
+        </is>
+      </c>
       <c r="M68" t="inlineStr">
         <is>
-          <t>['haushalt-tier', 'elektroartikel-batterien', 'elektrogeraete', 'kuechengeraete']</t>
+          <t>['haushalt-tier', 'elektroartikel-batterien', 'batterien', 'andere-batterien']</t>
         </is>
       </c>
       <c r="N68" t="inlineStr">
         <is>
-          <t>Severin Standgrill mit Grillplatte PG 8563 50% Aktion 74.50 Schweizer Franken statt 149.00 Schweizer Franken</t>
+          <t>Rayovac Hörgerätebatterien 13 6 Stück 9.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="O68" t="inlineStr">
         <is>
-          <t>2022-08-19 07:02:45</t>
+          <t>2022-08-19 20:58:39</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>3591269</t>
+          <t>6831289</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>Varta Longlife Max Power C 2er Bli</t>
+          <t>Rowenta Staubsauger RO2933</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/elektroartikel-batterien/batterien/andere-batterien/varta-longlife-max-power-c-2er-bli/p/3591269</t>
-        </is>
-      </c>
-      <c r="D69" t="inlineStr">
-        <is>
-          <t>2ST</t>
-        </is>
-      </c>
-      <c r="E69" t="n">
-        <v>1</v>
-      </c>
+          <t>/de/haushalt-tier/elektroartikel-batterien/elektrogeraete/haushaltsgeraete-kabel/rowenta-staubsauger-ro2933/p/6831289</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr"/>
+      <c r="E69" t="inlineStr"/>
       <c r="F69" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="G69" t="inlineStr">
         <is>
-          <t>Varta</t>
+          <t>Rowenta</t>
         </is>
       </c>
       <c r="H69" t="inlineStr">
         <is>
-          <t>8.95</t>
-        </is>
-      </c>
-      <c r="I69" t="inlineStr">
-        <is>
-          <t>4.48/1ST</t>
-        </is>
-      </c>
-      <c r="J69" t="inlineStr">
-        <is>
-          <t>Preis pro 1 Stück</t>
-        </is>
-      </c>
-      <c r="K69" t="inlineStr">
-        <is>
-          <t>4.48</t>
-        </is>
-      </c>
-      <c r="L69" t="inlineStr">
-        <is>
-          <t>1ST</t>
-        </is>
-      </c>
+          <t>99.90</t>
+        </is>
+      </c>
+      <c r="I69" t="inlineStr"/>
+      <c r="J69" t="inlineStr"/>
+      <c r="K69" t="inlineStr"/>
+      <c r="L69" t="inlineStr"/>
       <c r="M69" t="inlineStr">
         <is>
-          <t>['haushalt-tier', 'elektroartikel-batterien', 'batterien', 'andere-batterien']</t>
+          <t>['haushalt-tier', 'elektroartikel-batterien', 'elektrogeraete', 'haushaltsgeraete-kabel']</t>
         </is>
       </c>
       <c r="N69" t="inlineStr">
         <is>
-          <t>Varta Longlife Max Power C 2er Bli 8.95 Schweizer Franken</t>
+          <t>Rowenta Staubsauger RO2933 40% Aktion 99.90 Schweizer Franken statt 169.00 Schweizer Franken</t>
         </is>
       </c>
       <c r="O69" t="inlineStr">
         <is>
-          <t>2022-08-19 07:02:45</t>
+          <t>2022-08-19 20:58:39</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>6735643</t>
+          <t>6753975</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>LED 31V Anschlussset Transf.+Verl.kabel</t>
+          <t>Severin Standgrill mit Grillplatte PG 8563</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/haushalt-kueche/uebrige-haushaltsartikel/led-31v-anschlussset-transfverlkabel/p/6735643</t>
+          <t>/de/haushalt-tier/elektroartikel-batterien/elektrogeraete/kuechengeraete/severin-standgrill-mit-grillplatte-pg-8563/p/6753975</t>
         </is>
       </c>
       <c r="D70" t="inlineStr"/>
-      <c r="E70" t="n">
-        <v>1</v>
-      </c>
+      <c r="E70" t="inlineStr"/>
       <c r="F70" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="G70" t="inlineStr">
         <is>
-          <t>Coop</t>
+          <t>Severin</t>
         </is>
       </c>
       <c r="H70" t="inlineStr">
         <is>
-          <t>9.95</t>
+          <t>74.50</t>
         </is>
       </c>
       <c r="I70" t="inlineStr"/>
@@ -5109,100 +5085,124 @@
       <c r="L70" t="inlineStr"/>
       <c r="M70" t="inlineStr">
         <is>
-          <t>['haushalt-tier', 'haushalt-kueche', 'uebrige-haushaltsartikel']</t>
+          <t>['haushalt-tier', 'elektroartikel-batterien', 'elektrogeraete', 'kuechengeraete']</t>
         </is>
       </c>
       <c r="N70" t="inlineStr">
         <is>
-          <t>LED 31V Anschlussset Transf.+Verl.kabel 50% Aktion 9.95 Schweizer Franken statt 19.95 Schweizer Franken</t>
+          <t>Severin Standgrill mit Grillplatte PG 8563 50% Aktion 74.50 Schweizer Franken statt 149.00 Schweizer Franken</t>
         </is>
       </c>
       <c r="O70" t="inlineStr">
         <is>
-          <t>2022-08-19 07:02:45</t>
+          <t>2022-08-19 20:58:39</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>6700107</t>
+          <t>3591269</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>MIELE Compact C2 Classic (mit Beutel, 890 W)</t>
+          <t>Varta Longlife Max Power C 2er Bli</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/elektroartikel-batterien/elektrogeraete/haushaltsgeraete-kabel/miele-compact-c2-classic-mit-beutel-890-w/p/6700107</t>
-        </is>
-      </c>
-      <c r="D71" t="inlineStr"/>
-      <c r="E71" t="inlineStr"/>
+          <t>/de/haushalt-tier/elektroartikel-batterien/batterien/andere-batterien/varta-longlife-max-power-c-2er-bli/p/3591269</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>2ST</t>
+        </is>
+      </c>
+      <c r="E71" t="n">
+        <v>1</v>
+      </c>
       <c r="F71" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="G71" t="inlineStr">
         <is>
-          <t>Miele</t>
+          <t>Varta</t>
         </is>
       </c>
       <c r="H71" t="inlineStr">
         <is>
-          <t>229.00</t>
-        </is>
-      </c>
-      <c r="I71" t="inlineStr"/>
-      <c r="J71" t="inlineStr"/>
-      <c r="K71" t="inlineStr"/>
-      <c r="L71" t="inlineStr"/>
+          <t>8.95</t>
+        </is>
+      </c>
+      <c r="I71" t="inlineStr">
+        <is>
+          <t>4.48/1ST</t>
+        </is>
+      </c>
+      <c r="J71" t="inlineStr">
+        <is>
+          <t>Preis pro 1 Stück</t>
+        </is>
+      </c>
+      <c r="K71" t="inlineStr">
+        <is>
+          <t>4.48</t>
+        </is>
+      </c>
+      <c r="L71" t="inlineStr">
+        <is>
+          <t>1ST</t>
+        </is>
+      </c>
       <c r="M71" t="inlineStr">
         <is>
-          <t>['haushalt-tier', 'elektroartikel-batterien', 'elektrogeraete', 'haushaltsgeraete-kabel']</t>
+          <t>['haushalt-tier', 'elektroartikel-batterien', 'batterien', 'andere-batterien']</t>
         </is>
       </c>
       <c r="N71" t="inlineStr">
         <is>
-          <t>MIELE Compact C2 Classic (mit Beutel, 890 W) 41% Aktion 229.00 Schweizer Franken statt 389.00 Schweizer Franken</t>
+          <t>Varta Longlife Max Power C 2er Bli 8.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="O71" t="inlineStr">
         <is>
-          <t>2022-08-19 07:02:45</t>
+          <t>2022-08-19 20:58:39</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>4881282</t>
+          <t>6735643</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>Miele FJM HyClean 3D (4 Stück)</t>
+          <t>LED 31V Anschlussset Transf.+Verl.kabel</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/elektroartikel-batterien/elektrogeraete/haushaltsgeraete-kabel/miele-fjm-hyclean-3d-4-stueck/p/4881282</t>
+          <t>/de/haushalt-tier/haushalt-kueche/uebrige-haushaltsartikel/led-31v-anschlussset-transfverlkabel/p/6735643</t>
         </is>
       </c>
       <c r="D72" t="inlineStr"/>
-      <c r="E72" t="inlineStr"/>
+      <c r="E72" t="n">
+        <v>1</v>
+      </c>
       <c r="F72" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="G72" t="inlineStr">
         <is>
-          <t>Miele</t>
+          <t>Coop</t>
         </is>
       </c>
       <c r="H72" t="inlineStr">
         <is>
-          <t>8.95</t>
+          <t>9.95</t>
         </is>
       </c>
       <c r="I72" t="inlineStr"/>
@@ -5211,34 +5211,34 @@
       <c r="L72" t="inlineStr"/>
       <c r="M72" t="inlineStr">
         <is>
-          <t>['haushalt-tier', 'elektroartikel-batterien', 'elektrogeraete', 'haushaltsgeraete-kabel']</t>
+          <t>['haushalt-tier', 'haushalt-kueche', 'uebrige-haushaltsartikel']</t>
         </is>
       </c>
       <c r="N72" t="inlineStr">
         <is>
-          <t>Miele FJM HyClean 3D (4 Stück) 50% Aktion 8.95 Schweizer Franken statt 17.95 Schweizer Franken</t>
+          <t>LED 31V Anschlussset Transf.+Verl.kabel 50% Aktion 9.95 Schweizer Franken statt 19.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="O72" t="inlineStr">
         <is>
-          <t>2022-08-19 07:02:45</t>
+          <t>2022-08-19 20:58:39</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>5882124</t>
+          <t>6700107</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>Philips Avent Audio Monitors DECT-Babyphone</t>
+          <t>MIELE Compact C2 Classic (mit Beutel, 890 W)</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/elektroartikel-batterien/elektrogeraete/philips-avent-audio-monitors-dect-babyphone/p/5882124</t>
+          <t>/de/haushalt-tier/elektroartikel-batterien/elektrogeraete/haushaltsgeraete-kabel/miele-compact-c2-classic-mit-beutel-890-w/p/6700107</t>
         </is>
       </c>
       <c r="D73" t="inlineStr"/>
@@ -5248,12 +5248,12 @@
       </c>
       <c r="G73" t="inlineStr">
         <is>
-          <t>Avent</t>
+          <t>Miele</t>
         </is>
       </c>
       <c r="H73" t="inlineStr">
         <is>
-          <t>99.90</t>
+          <t>229.00</t>
         </is>
       </c>
       <c r="I73" t="inlineStr"/>
@@ -5262,34 +5262,34 @@
       <c r="L73" t="inlineStr"/>
       <c r="M73" t="inlineStr">
         <is>
-          <t>['haushalt-tier', 'elektroartikel-batterien', 'elektrogeraete']</t>
+          <t>['haushalt-tier', 'elektroartikel-batterien', 'elektrogeraete', 'haushaltsgeraete-kabel']</t>
         </is>
       </c>
       <c r="N73" t="inlineStr">
         <is>
-          <t>Philips Avent Audio Monitors DECT-Babyphone 99.90 Schweizer Franken</t>
+          <t>MIELE Compact C2 Classic (mit Beutel, 890 W) 41% Aktion 229.00 Schweizer Franken statt 389.00 Schweizer Franken</t>
         </is>
       </c>
       <c r="O73" t="inlineStr">
         <is>
-          <t>2022-08-19 07:02:45</t>
+          <t>2022-08-19 20:58:39</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>6670192</t>
+          <t>5882124</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>Philips Wasserkocher HD9318/01</t>
+          <t>Philips Avent Audio Monitors DECT-Babyphone</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/elektroartikel-batterien/elektrogeraete/kuechengeraete/philips-wasserkocher-hd931801/p/6670192</t>
+          <t>/de/haushalt-tier/elektroartikel-batterien/elektrogeraete/philips-avent-audio-monitors-dect-babyphone/p/5882124</t>
         </is>
       </c>
       <c r="D74" t="inlineStr"/>
@@ -5299,12 +5299,12 @@
       </c>
       <c r="G74" t="inlineStr">
         <is>
-          <t>Philips</t>
+          <t>Avent</t>
         </is>
       </c>
       <c r="H74" t="inlineStr">
         <is>
-          <t>49.90</t>
+          <t>99.90</t>
         </is>
       </c>
       <c r="I74" t="inlineStr"/>
@@ -5313,51 +5313,49 @@
       <c r="L74" t="inlineStr"/>
       <c r="M74" t="inlineStr">
         <is>
-          <t>['haushalt-tier', 'elektroartikel-batterien', 'elektrogeraete', 'kuechengeraete']</t>
+          <t>['haushalt-tier', 'elektroartikel-batterien', 'elektrogeraete']</t>
         </is>
       </c>
       <c r="N74" t="inlineStr">
         <is>
-          <t>Philips Wasserkocher HD9318/01 49.90 Schweizer Franken</t>
+          <t>Philips Avent Audio Monitors DECT-Babyphone 99.90 Schweizer Franken</t>
         </is>
       </c>
       <c r="O74" t="inlineStr">
         <is>
-          <t>2022-08-19 07:02:45</t>
+          <t>2022-08-19 20:58:39</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>6288875</t>
+          <t>6670192</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>satrap Bügeleisen mit Power-Dampfstation Station XA 6.5</t>
+          <t>Philips Wasserkocher HD9318/01</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/elektroartikel-batterien/elektrogeraete/haushaltsgeraete-kabel/satrap-buegeleisen-mit-power-dampfstation-station-xa-65/p/6288875</t>
+          <t>/de/haushalt-tier/elektroartikel-batterien/elektrogeraete/kuechengeraete/philips-wasserkocher-hd931801/p/6670192</t>
         </is>
       </c>
       <c r="D75" t="inlineStr"/>
-      <c r="E75" t="n">
-        <v>1</v>
-      </c>
+      <c r="E75" t="inlineStr"/>
       <c r="F75" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G75" t="inlineStr">
         <is>
-          <t>satrap</t>
+          <t>Philips</t>
         </is>
       </c>
       <c r="H75" t="inlineStr">
         <is>
-          <t>99.90</t>
+          <t>49.90</t>
         </is>
       </c>
       <c r="I75" t="inlineStr"/>
@@ -5366,42 +5364,42 @@
       <c r="L75" t="inlineStr"/>
       <c r="M75" t="inlineStr">
         <is>
-          <t>['haushalt-tier', 'elektroartikel-batterien', 'elektrogeraete', 'haushaltsgeraete-kabel']</t>
+          <t>['haushalt-tier', 'elektroartikel-batterien', 'elektrogeraete', 'kuechengeraete']</t>
         </is>
       </c>
       <c r="N75" t="inlineStr">
         <is>
-          <t>satrap Bügeleisen mit Power-Dampfstation Station XA 6.5 32% Aktion 99.90 Schweizer Franken statt 149.00 Schweizer Franken</t>
+          <t>Philips Wasserkocher HD9318/01 49.90 Schweizer Franken</t>
         </is>
       </c>
       <c r="O75" t="inlineStr">
         <is>
-          <t>2022-08-19 07:02:45</t>
+          <t>2022-08-19 20:58:39</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>6425996</t>
+          <t>6288875</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>satrap espresso XA Kolbenkaffeemaschine</t>
+          <t>satrap Bügeleisen mit Power-Dampfstation Station XA 6.5</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/elektroartikel-batterien/elektrogeraete/kuechengeraete/satrap-espresso-xa-kolbenkaffeemaschine/p/6425996</t>
+          <t>/de/haushalt-tier/elektroartikel-batterien/elektrogeraete/haushaltsgeraete-kabel/satrap-buegeleisen-mit-power-dampfstation-station-xa-65/p/6288875</t>
         </is>
       </c>
       <c r="D76" t="inlineStr"/>
       <c r="E76" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="F76" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G76" t="inlineStr">
         <is>
@@ -5410,7 +5408,7 @@
       </c>
       <c r="H76" t="inlineStr">
         <is>
-          <t>249.00</t>
+          <t>99.90</t>
         </is>
       </c>
       <c r="I76" t="inlineStr"/>
@@ -5419,40 +5417,42 @@
       <c r="L76" t="inlineStr"/>
       <c r="M76" t="inlineStr">
         <is>
-          <t>['haushalt-tier', 'elektroartikel-batterien', 'elektrogeraete', 'kuechengeraete']</t>
+          <t>['haushalt-tier', 'elektroartikel-batterien', 'elektrogeraete', 'haushaltsgeraete-kabel']</t>
         </is>
       </c>
       <c r="N76" t="inlineStr">
         <is>
-          <t>satrap espresso XA Kolbenkaffeemaschine 249.00 Schweizer Franken</t>
+          <t>satrap Bügeleisen mit Power-Dampfstation Station XA 6.5 32% Aktion 99.90 Schweizer Franken statt 149.00 Schweizer Franken</t>
         </is>
       </c>
       <c r="O76" t="inlineStr">
         <is>
-          <t>2022-08-19 07:02:45</t>
+          <t>2022-08-19 20:58:39</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>6125818</t>
+          <t>6425996</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>satrap Mano XA Handmixer</t>
+          <t>satrap espresso XA Kolbenkaffeemaschine</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/elektroartikel-batterien/elektrogeraete/kuechengeraete/satrap-mano-xa-handmixer/p/6125818</t>
+          <t>/de/haushalt-tier/elektroartikel-batterien/elektrogeraete/kuechengeraete/satrap-espresso-xa-kolbenkaffeemaschine/p/6425996</t>
         </is>
       </c>
       <c r="D77" t="inlineStr"/>
-      <c r="E77" t="inlineStr"/>
+      <c r="E77" t="n">
+        <v>7</v>
+      </c>
       <c r="F77" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="G77" t="inlineStr">
         <is>
@@ -5461,7 +5461,7 @@
       </c>
       <c r="H77" t="inlineStr">
         <is>
-          <t>49.95</t>
+          <t>249.00</t>
         </is>
       </c>
       <c r="I77" t="inlineStr"/>
@@ -5475,29 +5475,29 @@
       </c>
       <c r="N77" t="inlineStr">
         <is>
-          <t>satrap Mano XA Handmixer 49.95 Schweizer Franken</t>
+          <t>satrap espresso XA Kolbenkaffeemaschine 249.00 Schweizer Franken</t>
         </is>
       </c>
       <c r="O77" t="inlineStr">
         <is>
-          <t>2022-08-19 07:02:45</t>
+          <t>2022-08-19 20:58:39</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>7016089</t>
+          <t>6125818</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>Tefal Bügeleisen FV4961S0</t>
+          <t>satrap Mano XA Handmixer</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/elektroartikel-batterien/elektrogeraete/haushaltsgeraete-kabel/tefal-buegeleisen-fv4961s0/p/7016089</t>
+          <t>/de/haushalt-tier/elektroartikel-batterien/elektrogeraete/kuechengeraete/satrap-mano-xa-handmixer/p/6125818</t>
         </is>
       </c>
       <c r="D78" t="inlineStr"/>
@@ -5507,12 +5507,12 @@
       </c>
       <c r="G78" t="inlineStr">
         <is>
-          <t>Tefal</t>
+          <t>satrap</t>
         </is>
       </c>
       <c r="H78" t="inlineStr">
         <is>
-          <t>69.90</t>
+          <t>49.95</t>
         </is>
       </c>
       <c r="I78" t="inlineStr"/>
@@ -5521,34 +5521,34 @@
       <c r="L78" t="inlineStr"/>
       <c r="M78" t="inlineStr">
         <is>
-          <t>['haushalt-tier', 'elektroartikel-batterien', 'elektrogeraete', 'haushaltsgeraete-kabel']</t>
+          <t>['haushalt-tier', 'elektroartikel-batterien', 'elektrogeraete', 'kuechengeraete']</t>
         </is>
       </c>
       <c r="N78" t="inlineStr">
         <is>
-          <t>Tefal Bügeleisen FV4961S0 30% Aktion 69.90 Schweizer Franken statt 99.90 Schweizer Franken</t>
+          <t>satrap Mano XA Handmixer 49.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="O78" t="inlineStr">
         <is>
-          <t>2022-08-19 07:02:45</t>
+          <t>2022-08-19 20:58:39</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>6821480</t>
+          <t>7016089</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>Tefal Dampfbügeleisen Express Protect SV9202S0 (7.5 Bar, Durilium)</t>
+          <t>Tefal Bügeleisen FV4961S0</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/elektroartikel-batterien/elektrogeraete/haushaltsgeraete-kabel/tefal-dampfbuegeleisen-express-protect-sv9202s0-75-bar-durilium/p/6821480</t>
+          <t>/de/haushalt-tier/elektroartikel-batterien/elektrogeraete/haushaltsgeraete-kabel/tefal-buegeleisen-fv4961s0/p/7016089</t>
         </is>
       </c>
       <c r="D79" t="inlineStr"/>
@@ -5563,7 +5563,7 @@
       </c>
       <c r="H79" t="inlineStr">
         <is>
-          <t>199.00</t>
+          <t>69.90</t>
         </is>
       </c>
       <c r="I79" t="inlineStr"/>
@@ -5577,29 +5577,29 @@
       </c>
       <c r="N79" t="inlineStr">
         <is>
-          <t>Tefal Dampfbügeleisen Express Protect SV9202S0 (7.5 Bar, Durilium) 20% Aktion 199.00 Schweizer Franken statt 249.00 Schweizer Franken</t>
+          <t>Tefal Bügeleisen FV4961S0 30% Aktion 69.90 Schweizer Franken statt 99.90 Schweizer Franken</t>
         </is>
       </c>
       <c r="O79" t="inlineStr">
         <is>
-          <t>2022-08-19 07:02:45</t>
+          <t>2022-08-19 20:58:39</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>6822783</t>
+          <t>6821480</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>Trend Car Charger QC</t>
+          <t>Tefal Dampfbügeleisen Express Protect SV9202S0 (7.5 Bar, Durilium)</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/elektroartikel-batterien/elektrogeraete/haushaltsgeraete-kabel/trend-car-charger-qc/p/6822783</t>
+          <t>/de/haushalt-tier/elektroartikel-batterien/elektrogeraete/haushaltsgeraete-kabel/tefal-dampfbuegeleisen-express-protect-sv9202s0-75-bar-durilium/p/6821480</t>
         </is>
       </c>
       <c r="D80" t="inlineStr"/>
@@ -5609,12 +5609,12 @@
       </c>
       <c r="G80" t="inlineStr">
         <is>
-          <t>Trend</t>
+          <t>Tefal</t>
         </is>
       </c>
       <c r="H80" t="inlineStr">
         <is>
-          <t>19.95</t>
+          <t>199.00</t>
         </is>
       </c>
       <c r="I80" t="inlineStr"/>
@@ -5628,37 +5628,35 @@
       </c>
       <c r="N80" t="inlineStr">
         <is>
-          <t>Trend Car Charger QC 19.95 Schweizer Franken</t>
+          <t>Tefal Dampfbügeleisen Express Protect SV9202S0 (7.5 Bar, Durilium) 20% Aktion 199.00 Schweizer Franken statt 249.00 Schweizer Franken</t>
         </is>
       </c>
       <c r="O80" t="inlineStr">
         <is>
-          <t>2022-08-19 07:02:45</t>
+          <t>2022-08-19 20:58:39</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>6007537</t>
+          <t>6822783</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>Trend USB-Stick 16 GB</t>
+          <t>Trend Car Charger QC</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/elektroartikel-batterien/elektrogeraete/haushaltsgeraete-kabel/trend-usb-stick-16-gb/p/6007537</t>
+          <t>/de/haushalt-tier/elektroartikel-batterien/elektrogeraete/haushaltsgeraete-kabel/trend-car-charger-qc/p/6822783</t>
         </is>
       </c>
       <c r="D81" t="inlineStr"/>
-      <c r="E81" t="n">
-        <v>1</v>
-      </c>
+      <c r="E81" t="inlineStr"/>
       <c r="F81" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G81" t="inlineStr">
         <is>
@@ -5667,7 +5665,7 @@
       </c>
       <c r="H81" t="inlineStr">
         <is>
-          <t>16.95</t>
+          <t>19.95</t>
         </is>
       </c>
       <c r="I81" t="inlineStr"/>
@@ -5681,35 +5679,37 @@
       </c>
       <c r="N81" t="inlineStr">
         <is>
-          <t>Trend USB-Stick 16 GB 16.95 Schweizer Franken</t>
+          <t>Trend Car Charger QC 19.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="O81" t="inlineStr">
         <is>
-          <t>2022-08-19 07:02:45</t>
+          <t>2022-08-19 20:58:39</t>
         </is>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>6459240</t>
+          <t>6007537</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>Trend USB-Stick 256 GB</t>
+          <t>Trend USB-Stick 16 GB</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/elektroartikel-batterien/elektrogeraete/haushaltsgeraete-kabel/trend-usb-stick-256-gb/p/6459240</t>
+          <t>/de/haushalt-tier/elektroartikel-batterien/elektrogeraete/haushaltsgeraete-kabel/trend-usb-stick-16-gb/p/6007537</t>
         </is>
       </c>
       <c r="D82" t="inlineStr"/>
-      <c r="E82" t="inlineStr"/>
+      <c r="E82" t="n">
+        <v>1</v>
+      </c>
       <c r="F82" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G82" t="inlineStr">
         <is>
@@ -5718,7 +5718,7 @@
       </c>
       <c r="H82" t="inlineStr">
         <is>
-          <t>59.95</t>
+          <t>16.95</t>
         </is>
       </c>
       <c r="I82" t="inlineStr"/>
@@ -5732,29 +5732,29 @@
       </c>
       <c r="N82" t="inlineStr">
         <is>
-          <t>Trend USB-Stick 256 GB 59.95 Schweizer Franken</t>
+          <t>Trend USB-Stick 16 GB 16.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="O82" t="inlineStr">
         <is>
-          <t>2022-08-19 07:02:45</t>
+          <t>2022-08-19 20:58:39</t>
         </is>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>6007538</t>
+          <t>6459240</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>Trend USB-Stick 32 GB</t>
+          <t>Trend USB-Stick 256 GB</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/elektroartikel-batterien/elektrogeraete/haushaltsgeraete-kabel/trend-usb-stick-32-gb/p/6007538</t>
+          <t>/de/haushalt-tier/elektroartikel-batterien/elektrogeraete/haushaltsgeraete-kabel/trend-usb-stick-256-gb/p/6459240</t>
         </is>
       </c>
       <c r="D83" t="inlineStr"/>
@@ -5769,7 +5769,7 @@
       </c>
       <c r="H83" t="inlineStr">
         <is>
-          <t>29.95</t>
+          <t>59.95</t>
         </is>
       </c>
       <c r="I83" t="inlineStr"/>
@@ -5783,37 +5783,35 @@
       </c>
       <c r="N83" t="inlineStr">
         <is>
-          <t>Trend USB-Stick 32 GB 29.95 Schweizer Franken</t>
+          <t>Trend USB-Stick 256 GB 59.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="O83" t="inlineStr">
         <is>
-          <t>2022-08-19 07:02:45</t>
+          <t>2022-08-19 20:58:39</t>
         </is>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>5867973</t>
+          <t>6007538</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>Trend USB-Stick 64 GB</t>
+          <t>Trend USB-Stick 32 GB</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/elektroartikel-batterien/elektrogeraete/haushaltsgeraete-kabel/trend-usb-stick-64-gb/p/5867973</t>
+          <t>/de/haushalt-tier/elektroartikel-batterien/elektrogeraete/haushaltsgeraete-kabel/trend-usb-stick-32-gb/p/6007538</t>
         </is>
       </c>
       <c r="D84" t="inlineStr"/>
-      <c r="E84" t="n">
-        <v>4</v>
-      </c>
+      <c r="E84" t="inlineStr"/>
       <c r="F84" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G84" t="inlineStr">
         <is>
@@ -5822,7 +5820,7 @@
       </c>
       <c r="H84" t="inlineStr">
         <is>
-          <t>39.95</t>
+          <t>29.95</t>
         </is>
       </c>
       <c r="I84" t="inlineStr"/>
@@ -5836,105 +5834,87 @@
       </c>
       <c r="N84" t="inlineStr">
         <is>
-          <t>Trend USB-Stick 64 GB 39.95 Schweizer Franken</t>
+          <t>Trend USB-Stick 32 GB 29.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="O84" t="inlineStr">
         <is>
-          <t>2022-08-19 07:02:45</t>
+          <t>2022-08-19 20:58:39</t>
         </is>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>5894674</t>
+          <t>5867973</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>Trisa Beauty Sonic Nail Care System</t>
+          <t>Trend USB-Stick 64 GB</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>/de/kosmetik-gesundheit/make-up/naegel/set-accessoires/trisa-beauty-sonic-nail-care-system/p/5894674</t>
-        </is>
-      </c>
-      <c r="D85" t="inlineStr">
-        <is>
-          <t>1ST</t>
-        </is>
-      </c>
-      <c r="E85" t="inlineStr"/>
+          <t>/de/haushalt-tier/elektroartikel-batterien/elektrogeraete/haushaltsgeraete-kabel/trend-usb-stick-64-gb/p/5867973</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr"/>
+      <c r="E85" t="n">
+        <v>4</v>
+      </c>
       <c r="F85" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G85" t="inlineStr">
         <is>
-          <t>Trisa</t>
+          <t>Trend</t>
         </is>
       </c>
       <c r="H85" t="inlineStr">
         <is>
-          <t>29.95</t>
-        </is>
-      </c>
-      <c r="I85" t="inlineStr">
-        <is>
-          <t>29.95/1ST</t>
-        </is>
-      </c>
-      <c r="J85" t="inlineStr">
-        <is>
-          <t>Preis pro 1 Stück</t>
-        </is>
-      </c>
-      <c r="K85" t="inlineStr">
-        <is>
-          <t>29.95</t>
-        </is>
-      </c>
-      <c r="L85" t="inlineStr">
-        <is>
-          <t>1ST</t>
-        </is>
-      </c>
+          <t>39.95</t>
+        </is>
+      </c>
+      <c r="I85" t="inlineStr"/>
+      <c r="J85" t="inlineStr"/>
+      <c r="K85" t="inlineStr"/>
+      <c r="L85" t="inlineStr"/>
       <c r="M85" t="inlineStr">
         <is>
-          <t>['kosmetik-gesundheit', 'make-up', 'naegel', 'set-accessoires']</t>
+          <t>['haushalt-tier', 'elektroartikel-batterien', 'elektrogeraete', 'haushaltsgeraete-kabel']</t>
         </is>
       </c>
       <c r="N85" t="inlineStr">
         <is>
-          <t>Trisa Beauty Sonic Nail Care System 29.95 Schweizer Franken</t>
+          <t>Trend USB-Stick 64 GB 39.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="O85" t="inlineStr">
         <is>
-          <t>2022-08-19 07:02:45</t>
+          <t>2022-08-19 20:58:39</t>
         </is>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>4589933</t>
+          <t>5894674</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>Varta Longlife AAA 4er Bli</t>
+          <t>Trisa Beauty Sonic Nail Care System</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/elektroartikel-batterien/batterien/aaa/varta-longlife-aaa-4er-bli/p/4589933</t>
+          <t>/de/kosmetik-gesundheit/make-up/naegel/set-accessoires/trisa-beauty-sonic-nail-care-system/p/5894674</t>
         </is>
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>4ST</t>
+          <t>1ST</t>
         </is>
       </c>
       <c r="E86" t="inlineStr"/>
@@ -5943,17 +5923,17 @@
       </c>
       <c r="G86" t="inlineStr">
         <is>
-          <t>Varta</t>
+          <t>Trisa</t>
         </is>
       </c>
       <c r="H86" t="inlineStr">
         <is>
-          <t>7.95</t>
+          <t>29.95</t>
         </is>
       </c>
       <c r="I86" t="inlineStr">
         <is>
-          <t>1.99/1ST</t>
+          <t>29.95/1ST</t>
         </is>
       </c>
       <c r="J86" t="inlineStr">
@@ -5963,7 +5943,7 @@
       </c>
       <c r="K86" t="inlineStr">
         <is>
-          <t>1.99</t>
+          <t>29.95</t>
         </is>
       </c>
       <c r="L86" t="inlineStr">
@@ -5973,39 +5953,39 @@
       </c>
       <c r="M86" t="inlineStr">
         <is>
-          <t>['haushalt-tier', 'elektroartikel-batterien', 'batterien', 'aaa']</t>
+          <t>['kosmetik-gesundheit', 'make-up', 'naegel', 'set-accessoires']</t>
         </is>
       </c>
       <c r="N86" t="inlineStr">
         <is>
-          <t>Varta Longlife AAA 4er Bli 7.95 Schweizer Franken</t>
+          <t>Trisa Beauty Sonic Nail Care System 29.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="O86" t="inlineStr">
         <is>
-          <t>2022-08-19 07:02:45</t>
+          <t>2022-08-19 20:58:39</t>
         </is>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>4589935</t>
+          <t>4589933</t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>Varta Longlife C 2er Bli</t>
+          <t>Varta Longlife AAA 4er Bli</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/elektroartikel-batterien/batterien/andere-batterien/varta-longlife-c-2er-bli/p/4589935</t>
+          <t>/de/haushalt-tier/elektroartikel-batterien/batterien/aaa/varta-longlife-aaa-4er-bli/p/4589933</t>
         </is>
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>2ST</t>
+          <t>4ST</t>
         </is>
       </c>
       <c r="E87" t="inlineStr"/>
@@ -6019,12 +5999,12 @@
       </c>
       <c r="H87" t="inlineStr">
         <is>
-          <t>6.95</t>
+          <t>7.95</t>
         </is>
       </c>
       <c r="I87" t="inlineStr">
         <is>
-          <t>3.48/1ST</t>
+          <t>1.99/1ST</t>
         </is>
       </c>
       <c r="J87" t="inlineStr">
@@ -6034,7 +6014,7 @@
       </c>
       <c r="K87" t="inlineStr">
         <is>
-          <t>3.48</t>
+          <t>1.99</t>
         </is>
       </c>
       <c r="L87" t="inlineStr">
@@ -6044,39 +6024,39 @@
       </c>
       <c r="M87" t="inlineStr">
         <is>
-          <t>['haushalt-tier', 'elektroartikel-batterien', 'batterien', 'andere-batterien']</t>
+          <t>['haushalt-tier', 'elektroartikel-batterien', 'batterien', 'aaa']</t>
         </is>
       </c>
       <c r="N87" t="inlineStr">
         <is>
-          <t>Varta Longlife C 2er Bli 6.95 Schweizer Franken</t>
+          <t>Varta Longlife AAA 4er Bli 7.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="O87" t="inlineStr">
         <is>
-          <t>2022-08-19 07:02:45</t>
+          <t>2022-08-19 20:58:39</t>
         </is>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>3494067</t>
+          <t>4589935</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>Varta Longlife Max Power AAA 4er Bli</t>
+          <t>Varta Longlife C 2er Bli</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/elektroartikel-batterien/batterien/aaa/varta-longlife-max-power-aaa-4er-bli/p/3494067</t>
+          <t>/de/haushalt-tier/elektroartikel-batterien/batterien/andere-batterien/varta-longlife-c-2er-bli/p/4589935</t>
         </is>
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>4ST</t>
+          <t>2ST</t>
         </is>
       </c>
       <c r="E88" t="inlineStr"/>
@@ -6090,12 +6070,12 @@
       </c>
       <c r="H88" t="inlineStr">
         <is>
-          <t>9.95</t>
+          <t>6.95</t>
         </is>
       </c>
       <c r="I88" t="inlineStr">
         <is>
-          <t>2.49/1ST</t>
+          <t>3.48/1ST</t>
         </is>
       </c>
       <c r="J88" t="inlineStr">
@@ -6105,7 +6085,7 @@
       </c>
       <c r="K88" t="inlineStr">
         <is>
-          <t>2.49</t>
+          <t>3.48</t>
         </is>
       </c>
       <c r="L88" t="inlineStr">
@@ -6115,39 +6095,39 @@
       </c>
       <c r="M88" t="inlineStr">
         <is>
-          <t>['haushalt-tier', 'elektroartikel-batterien', 'batterien', 'aaa']</t>
+          <t>['haushalt-tier', 'elektroartikel-batterien', 'batterien', 'andere-batterien']</t>
         </is>
       </c>
       <c r="N88" t="inlineStr">
         <is>
-          <t>Varta Longlife Max Power AAA 4er Bli 9.95 Schweizer Franken</t>
+          <t>Varta Longlife C 2er Bli 6.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="O88" t="inlineStr">
         <is>
-          <t>2022-08-19 07:02:45</t>
+          <t>2022-08-19 20:58:39</t>
         </is>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>3591272</t>
+          <t>3494067</t>
         </is>
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>Varta Longlife Max Power D 2er Bli</t>
+          <t>Varta Longlife Max Power AAA 4er Bli</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/elektroartikel-batterien/batterien/andere-batterien/varta-longlife-max-power-d-2er-bli/p/3591272</t>
+          <t>/de/haushalt-tier/elektroartikel-batterien/batterien/aaa/varta-longlife-max-power-aaa-4er-bli/p/3494067</t>
         </is>
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>2ST</t>
+          <t>4ST</t>
         </is>
       </c>
       <c r="E89" t="inlineStr"/>
@@ -6166,37 +6146,108 @@
       </c>
       <c r="I89" t="inlineStr">
         <is>
+          <t>2.49/1ST</t>
+        </is>
+      </c>
+      <c r="J89" t="inlineStr">
+        <is>
+          <t>Preis pro 1 Stück</t>
+        </is>
+      </c>
+      <c r="K89" t="inlineStr">
+        <is>
+          <t>2.49</t>
+        </is>
+      </c>
+      <c r="L89" t="inlineStr">
+        <is>
+          <t>1ST</t>
+        </is>
+      </c>
+      <c r="M89" t="inlineStr">
+        <is>
+          <t>['haushalt-tier', 'elektroartikel-batterien', 'batterien', 'aaa']</t>
+        </is>
+      </c>
+      <c r="N89" t="inlineStr">
+        <is>
+          <t>Varta Longlife Max Power AAA 4er Bli 9.95 Schweizer Franken</t>
+        </is>
+      </c>
+      <c r="O89" t="inlineStr">
+        <is>
+          <t>2022-08-19 20:58:39</t>
+        </is>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="inlineStr">
+        <is>
+          <t>3591272</t>
+        </is>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>Varta Longlife Max Power D 2er Bli</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>/de/haushalt-tier/elektroartikel-batterien/batterien/andere-batterien/varta-longlife-max-power-d-2er-bli/p/3591272</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>2ST</t>
+        </is>
+      </c>
+      <c r="E90" t="inlineStr"/>
+      <c r="F90" t="n">
+        <v>0</v>
+      </c>
+      <c r="G90" t="inlineStr">
+        <is>
+          <t>Varta</t>
+        </is>
+      </c>
+      <c r="H90" t="inlineStr">
+        <is>
+          <t>9.95</t>
+        </is>
+      </c>
+      <c r="I90" t="inlineStr">
+        <is>
           <t>4.98/1ST</t>
         </is>
       </c>
-      <c r="J89" t="inlineStr">
+      <c r="J90" t="inlineStr">
         <is>
           <t>Preis pro 1 Stück</t>
         </is>
       </c>
-      <c r="K89" t="inlineStr">
+      <c r="K90" t="inlineStr">
         <is>
           <t>4.98</t>
         </is>
       </c>
-      <c r="L89" t="inlineStr">
-        <is>
-          <t>1ST</t>
-        </is>
-      </c>
-      <c r="M89" t="inlineStr">
+      <c r="L90" t="inlineStr">
+        <is>
+          <t>1ST</t>
+        </is>
+      </c>
+      <c r="M90" t="inlineStr">
         <is>
           <t>['haushalt-tier', 'elektroartikel-batterien', 'batterien', 'andere-batterien']</t>
         </is>
       </c>
-      <c r="N89" t="inlineStr">
+      <c r="N90" t="inlineStr">
         <is>
           <t>Varta Longlife Max Power D 2er Bli 9.95 Schweizer Franken</t>
         </is>
       </c>
-      <c r="O89" t="inlineStr">
-        <is>
-          <t>2022-08-19 07:02:45</t>
+      <c r="O90" t="inlineStr">
+        <is>
+          <t>2022-08-19 20:58:39</t>
         </is>
       </c>
     </row>
